--- a/Data_preparation/datasets/final_data/EBAY_INC.xlsx
+++ b/Data_preparation/datasets/final_data/EBAY_INC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,114 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>WIX</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>NTAP</t>
-  </si>
-  <si>
-    <t>ROK</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>ERIC</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
   </si>
 </sst>
 </file>
@@ -760,22 +652,22 @@
         <v>42094</v>
       </c>
       <c r="D2">
-        <v>19.17000007629395</v>
+        <v>21.54948957371399</v>
       </c>
       <c r="E2">
-        <v>19.46999931335449</v>
+        <v>21.89906311035156</v>
       </c>
       <c r="F2">
-        <v>21.10000038146973</v>
+        <v>22.6057258426151</v>
       </c>
       <c r="G2">
-        <v>18.63999938964844</v>
+        <v>20.82403088014538</v>
       </c>
       <c r="H2">
-        <v>55686229</v>
+        <v>457000000</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>69795501097</v>
@@ -876,22 +768,22 @@
         <v>42185</v>
       </c>
       <c r="D3">
-        <v>135.1841268565159</v>
+        <v>22.92522175871082</v>
       </c>
       <c r="E3">
-        <v>146.5059204101562</v>
+        <v>25.11404609680176</v>
       </c>
       <c r="F3">
-        <v>149.4612783851101</v>
+        <v>26.21256189626325</v>
       </c>
       <c r="G3">
-        <v>133.8800511327204</v>
+        <v>22.48543658985835</v>
       </c>
       <c r="H3">
-        <v>143182982</v>
+        <v>457000000</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>73180858726</v>
@@ -1004,22 +896,22 @@
         <v>42277</v>
       </c>
       <c r="D4">
-        <v>20.73999977111816</v>
+        <v>21.8810156255608</v>
       </c>
       <c r="E4">
-        <v>22.21999931335449</v>
+        <v>24.91756439208984</v>
       </c>
       <c r="F4">
-        <v>23.29999923706055</v>
+        <v>25.51594325488637</v>
       </c>
       <c r="G4">
-        <v>20.07999992370605</v>
+        <v>21.09508601791939</v>
       </c>
       <c r="H4">
-        <v>272490000</v>
+        <v>457000000</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>29773494544</v>
@@ -1132,22 +1024,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>84.98000335693359</v>
+        <v>24.21200809222352</v>
       </c>
       <c r="E5">
-        <v>62.20999908447266</v>
+        <v>20.95218276977539</v>
       </c>
       <c r="F5">
-        <v>85.66999816894531</v>
+        <v>24.33704189077607</v>
       </c>
       <c r="G5">
-        <v>57.66999816894531</v>
+        <v>20.00549464475374</v>
       </c>
       <c r="H5">
-        <v>207519000</v>
+        <v>457000000</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>32993968595</v>
@@ -1260,22 +1152,22 @@
         <v>42460</v>
       </c>
       <c r="D6">
-        <v>21.06878244070543</v>
+        <v>21.76490721995367</v>
       </c>
       <c r="E6">
-        <v>18.4537239074707</v>
+        <v>21.8184928894043</v>
       </c>
       <c r="F6">
-        <v>21.22490591599555</v>
+        <v>23.40821414294883</v>
       </c>
       <c r="G6">
-        <v>18.25076398515507</v>
+        <v>20.89859676263694</v>
       </c>
       <c r="H6">
-        <v>199618386</v>
+        <v>457000000</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>28123905523</v>
@@ -1388,22 +1280,22 @@
         <v>42551</v>
       </c>
       <c r="D7">
-        <v>96.04321029982444</v>
+        <v>20.92539553995367</v>
       </c>
       <c r="E7">
-        <v>95.93419647216795</v>
+        <v>27.82907867431641</v>
       </c>
       <c r="F7">
-        <v>101.2592138942743</v>
+        <v>28.39173430253645</v>
       </c>
       <c r="G7">
-        <v>92.99075914643778</v>
+        <v>20.80929124053004</v>
       </c>
       <c r="H7">
-        <v>112434397</v>
+        <v>457000000</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>26895848258</v>
@@ -1516,22 +1408,22 @@
         <v>42643</v>
       </c>
       <c r="D8">
-        <v>10.08891169552178</v>
+        <v>27.95411415063723</v>
       </c>
       <c r="E8">
-        <v>10.03531837463379</v>
+        <v>25.46235847473145</v>
       </c>
       <c r="F8">
-        <v>10.24075858308116</v>
+        <v>29.49918143060584</v>
       </c>
       <c r="G8">
-        <v>9.423462821204105</v>
+        <v>25.39984155756459</v>
       </c>
       <c r="H8">
-        <v>1319450062</v>
+        <v>457000000</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>37144720099</v>
@@ -1644,22 +1536,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>45.97999954223633</v>
+        <v>26.64124890126123</v>
       </c>
       <c r="E9">
-        <v>53.06000137329102</v>
+        <v>28.42745399475098</v>
       </c>
       <c r="F9">
-        <v>53.20000076293945</v>
+        <v>29.33841729780272</v>
       </c>
       <c r="G9">
-        <v>45.61000061035156</v>
+        <v>26.35545635885613</v>
       </c>
       <c r="H9">
-        <v>50476952</v>
+        <v>457000000</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>33191236004</v>
@@ -1772,22 +1664,22 @@
         <v>42825</v>
       </c>
       <c r="D10">
-        <v>5.311937668057123</v>
+        <v>29.80283517986716</v>
       </c>
       <c r="E10">
-        <v>5.160849571228027</v>
+        <v>29.83856010437012</v>
       </c>
       <c r="F10">
-        <v>5.327841658292762</v>
+        <v>31.02638829222093</v>
       </c>
       <c r="G10">
-        <v>4.930241523220734</v>
+        <v>28.48104363550475</v>
       </c>
       <c r="H10">
-        <v>3071530678</v>
+        <v>457000000</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>36492020116</v>
@@ -1900,22 +1792,22 @@
         <v>42916</v>
       </c>
       <c r="D11">
-        <v>70.19999694824219</v>
+        <v>31.39254777731885</v>
       </c>
       <c r="E11">
-        <v>61.70000076293945</v>
+        <v>31.91054534912109</v>
       </c>
       <c r="F11">
-        <v>77.92500305175781</v>
+        <v>33.47347440247721</v>
       </c>
       <c r="G11">
-        <v>61</v>
+        <v>30.32082431649166</v>
       </c>
       <c r="H11">
-        <v>55686229</v>
+        <v>457000000</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>37795243868</v>
@@ -2028,16 +1920,16 @@
         <v>43008</v>
       </c>
       <c r="D12">
-        <v>34.39338093652559</v>
+        <v>34.39337703365663</v>
       </c>
       <c r="E12">
-        <v>33.61638259887695</v>
+        <v>33.61637878417969</v>
       </c>
       <c r="F12">
-        <v>35.08107037354011</v>
+        <v>35.08106639263399</v>
       </c>
       <c r="G12">
-        <v>32.32138309818511</v>
+        <v>32.32137943044092</v>
       </c>
       <c r="H12">
         <v>457000000</v>
@@ -2156,22 +2048,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>8.751999855041504</v>
+        <v>34.08972672120942</v>
       </c>
       <c r="E13">
-        <v>9.208000183105469</v>
+        <v>36.24210739135742</v>
       </c>
       <c r="F13">
-        <v>9.28600025177002</v>
+        <v>36.9208639104165</v>
       </c>
       <c r="G13">
-        <v>8.696000099182129</v>
+        <v>33.38417821270161</v>
       </c>
       <c r="H13">
-        <v>766266033</v>
+        <v>457000000</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>39422114861</v>
@@ -2272,22 +2164,22 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>35.97240561616163</v>
+        <v>35.75983612103065</v>
       </c>
       <c r="E14">
-        <v>31.91368293762207</v>
+        <v>33.83073425292969</v>
       </c>
       <c r="F14">
-        <v>36.75260893317965</v>
+        <v>38.40341953159184</v>
       </c>
       <c r="G14">
-        <v>31.53188151649943</v>
+        <v>33.62532102240467</v>
       </c>
       <c r="H14">
-        <v>5186523104</v>
+        <v>457000000</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>40726086042</v>
@@ -2400,22 +2292,22 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>22.36372947692871</v>
+        <v>32.07131238127867</v>
       </c>
       <c r="E15">
-        <v>22.87315368652344</v>
+        <v>29.87428092956543</v>
       </c>
       <c r="F15">
-        <v>25.01273536682129</v>
+        <v>34.24155184674922</v>
       </c>
       <c r="G15">
-        <v>22.00713157653809</v>
+        <v>29.76710957767879</v>
       </c>
       <c r="H15">
-        <v>60308678</v>
+        <v>457000000</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>36041643513</v>
@@ -2528,22 +2420,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>40.01662959399956</v>
+        <v>29.56169706052044</v>
       </c>
       <c r="E16">
-        <v>40.09360122680664</v>
+        <v>25.92677116394043</v>
       </c>
       <c r="F16">
-        <v>42.52247987457982</v>
+        <v>30.90135106761804</v>
       </c>
       <c r="G16">
-        <v>36.22792094161961</v>
+        <v>23.54218696316838</v>
       </c>
       <c r="H16">
-        <v>4757218036</v>
+        <v>457000000</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>32674928155</v>
@@ -2656,22 +2548,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>42.82212632249508</v>
+        <v>24.6942867763111</v>
       </c>
       <c r="E17">
-        <v>46.75239944458008</v>
+        <v>30.05290412902832</v>
       </c>
       <c r="F17">
-        <v>46.95784665825049</v>
+        <v>31.03531563529274</v>
       </c>
       <c r="G17">
-        <v>41.83955640128374</v>
+        <v>24.61390740529557</v>
       </c>
       <c r="H17">
-        <v>450687724</v>
+        <v>457000000</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>27026559476</v>
@@ -2772,22 +2664,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>83.62000274658203</v>
+        <v>33.53590778380505</v>
       </c>
       <c r="E18">
-        <v>104.0299987792969</v>
+        <v>34.73714065551758</v>
       </c>
       <c r="F18">
-        <v>104.9800033569336</v>
+        <v>34.78196208856122</v>
       </c>
       <c r="G18">
-        <v>82.03099822998047</v>
+        <v>31.76991528070554</v>
       </c>
       <c r="H18">
-        <v>168459019</v>
+        <v>457000000</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>33978659950</v>
@@ -2900,22 +2792,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>14.72999954223633</v>
+        <v>35.97029922006883</v>
       </c>
       <c r="E19">
-        <v>16.79999923706055</v>
+        <v>37.06821441650391</v>
       </c>
       <c r="F19">
-        <v>18.36000061035156</v>
+        <v>37.79716089826816</v>
       </c>
       <c r="G19">
-        <v>13.96000003814697</v>
+        <v>35.0343686977228</v>
       </c>
       <c r="H19">
-        <v>1435682333</v>
+        <v>457000000</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>34425332340</v>
@@ -3028,22 +2920,22 @@
         <v>43738</v>
       </c>
       <c r="D20">
-        <v>42.51583583355016</v>
+        <v>35.20998997479518</v>
       </c>
       <c r="E20">
-        <v>42.25590896606445</v>
+        <v>31.83257484436035</v>
       </c>
       <c r="F20">
-        <v>43.8557984628152</v>
+        <v>35.64345441035537</v>
       </c>
       <c r="G20">
-        <v>39.92553545962458</v>
+        <v>31.72420959668758</v>
       </c>
       <c r="H20">
-        <v>539679667</v>
+        <v>457000000</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>32695005089</v>
@@ -3156,22 +3048,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>74.30999755859375</v>
+        <v>33.00902008865313</v>
       </c>
       <c r="E21">
-        <v>78.51000213623047</v>
+        <v>30.42523384094238</v>
       </c>
       <c r="F21">
-        <v>80.26000213623047</v>
+        <v>33.09061352060056</v>
       </c>
       <c r="G21">
-        <v>70.55000305175781</v>
+        <v>30.39803372471017</v>
       </c>
       <c r="H21">
-        <v>201104117</v>
+        <v>457000000</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>29376389700</v>
@@ -3284,22 +3176,22 @@
         <v>43921</v>
       </c>
       <c r="D22">
-        <v>26.5</v>
+        <v>26.72142689697695</v>
       </c>
       <c r="E22">
-        <v>30.27000045776367</v>
+        <v>36.27520370483398</v>
       </c>
       <c r="F22">
-        <v>32</v>
+        <v>36.75790048611601</v>
       </c>
       <c r="G22">
-        <v>21.67000007629395</v>
+        <v>25.77424529191476</v>
       </c>
       <c r="H22">
-        <v>2085418676</v>
+        <v>457000000</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>23930189630</v>
@@ -3412,22 +3304,22 @@
         <v>44012</v>
       </c>
       <c r="D23">
-        <v>256.4700012207031</v>
+        <v>48.17996005491695</v>
       </c>
       <c r="E23">
-        <v>280.75</v>
+        <v>50.52908706665039</v>
       </c>
       <c r="F23">
-        <v>287.8299865722656</v>
+        <v>55.81234069846441</v>
       </c>
       <c r="G23">
-        <v>250.9499969482422</v>
+        <v>46.90942094975978</v>
       </c>
       <c r="H23">
-        <v>50845151</v>
+        <v>457000000</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>36759753382</v>
@@ -3540,22 +3432,22 @@
         <v>44104</v>
       </c>
       <c r="D24">
-        <v>142.1999969482422</v>
+        <v>48.01072817977752</v>
       </c>
       <c r="E24">
-        <v>135.75</v>
+        <v>43.66528701782227</v>
       </c>
       <c r="F24">
-        <v>158.7359924316406</v>
+        <v>53.48378740616621</v>
       </c>
       <c r="G24">
-        <v>133.8099975585938</v>
+        <v>43.07856108010362</v>
       </c>
       <c r="H24">
-        <v>158300823</v>
+        <v>457000000</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>36463806144</v>
@@ -3668,22 +3560,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>29.91399955749512</v>
+        <v>46.42272655099118</v>
       </c>
       <c r="E25">
-        <v>28.95000076293945</v>
+        <v>51.96807098388672</v>
       </c>
       <c r="F25">
-        <v>31.0620002746582</v>
+        <v>55.68336138539236</v>
       </c>
       <c r="G25">
-        <v>27.46199989318848</v>
+        <v>46.39513888972353</v>
       </c>
       <c r="H25">
-        <v>766266033</v>
+        <v>457000000</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>34639261132</v>
@@ -3796,22 +3688,22 @@
         <v>44286</v>
       </c>
       <c r="D26">
-        <v>529.9299926757812</v>
+        <v>56.64398924933778</v>
       </c>
       <c r="E26">
-        <v>513.469970703125</v>
+        <v>51.46853637695312</v>
       </c>
       <c r="F26">
-        <v>563.5599975585938</v>
+        <v>60.06661372870931</v>
       </c>
       <c r="G26">
-        <v>499</v>
+        <v>50.69360220056591</v>
       </c>
       <c r="H26">
-        <v>424926346</v>
+        <v>457000000</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>41670498771</v>
@@ -3924,22 +3816,22 @@
         <v>44377</v>
       </c>
       <c r="D27">
-        <v>46.47724219552952</v>
+        <v>64.96807996691787</v>
       </c>
       <c r="E27">
-        <v>48.50979995727539</v>
+        <v>63.11740112304688</v>
       </c>
       <c r="F27">
-        <v>48.75511095753174</v>
+        <v>68.59540880655794</v>
       </c>
       <c r="G27">
-        <v>45.85521015250949</v>
+        <v>62.25683517825568</v>
       </c>
       <c r="H27">
-        <v>3953196953</v>
+        <v>457000000</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>47831379464</v>
@@ -4052,22 +3944,22 @@
         <v>44469</v>
       </c>
       <c r="D28">
-        <v>138.916410444292</v>
+        <v>64.64619744867976</v>
       </c>
       <c r="E28">
-        <v>146.6503143310547</v>
+        <v>71.15719604492188</v>
       </c>
       <c r="F28">
-        <v>149.9494520691154</v>
+        <v>75.3030869224207</v>
       </c>
       <c r="G28">
-        <v>135.3627448332334</v>
+        <v>63.32916034644617</v>
       </c>
       <c r="H28">
-        <v>14840390000</v>
+        <v>457000000</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>45289387934</v>
@@ -4180,22 +4072,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>17.05999946594238</v>
+        <v>61.78948060006648</v>
       </c>
       <c r="E29">
-        <v>15.57999992370606</v>
+        <v>55.85694885253906</v>
       </c>
       <c r="F29">
-        <v>19.65999984741211</v>
+        <v>62.75654033438191</v>
       </c>
       <c r="G29">
-        <v>13.14000034332275</v>
+        <v>51.98871346242819</v>
       </c>
       <c r="H29">
-        <v>250599325</v>
+        <v>457000000</v>
       </c>
       <c r="I29" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>41629251436</v>
@@ -4308,22 +4200,22 @@
         <v>44651</v>
       </c>
       <c r="D30">
-        <v>151.2200012207031</v>
+        <v>54.03423084150439</v>
       </c>
       <c r="E30">
-        <v>119.3099975585938</v>
+        <v>48.47861099243164</v>
       </c>
       <c r="F30">
-        <v>161.6100006103516</v>
+        <v>54.50108959248782</v>
       </c>
       <c r="G30">
-        <v>118.879997253418</v>
+        <v>48.10512612875466</v>
       </c>
       <c r="H30">
-        <v>168459019</v>
+        <v>457000000</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>33641905673</v>
@@ -4424,22 +4316,22 @@
         <v>44742</v>
       </c>
       <c r="D31">
-        <v>3.200000047683716</v>
+        <v>39.33738914528377</v>
       </c>
       <c r="E31">
-        <v>3.930000066757202</v>
+        <v>45.61223983764648</v>
       </c>
       <c r="F31">
-        <v>4.539999961853027</v>
+        <v>46.64397730671171</v>
       </c>
       <c r="G31">
-        <v>3.109999895095825</v>
+        <v>38.66207157086663</v>
       </c>
       <c r="H31">
-        <v>448228270</v>
+        <v>457000000</v>
       </c>
       <c r="I31" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>23328621765</v>
@@ -4540,22 +4432,22 @@
         <v>44834</v>
       </c>
       <c r="D32">
-        <v>254.5</v>
+        <v>34.82000028348973</v>
       </c>
       <c r="E32">
-        <v>227.5399932861328</v>
+        <v>37.55356979370117</v>
       </c>
       <c r="F32">
-        <v>257.5</v>
+        <v>38.29823230385974</v>
       </c>
       <c r="G32">
-        <v>198.5899963378907</v>
+        <v>33.85853797843131</v>
       </c>
       <c r="H32">
-        <v>3325150886</v>
+        <v>457000000</v>
       </c>
       <c r="I32" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>20222230006</v>
@@ -4656,22 +4548,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>26.71999931335449</v>
+        <v>39.86539494905932</v>
       </c>
       <c r="E33">
-        <v>28.72999954223633</v>
+        <v>46.89488983154297</v>
       </c>
       <c r="F33">
-        <v>29.72999954223633</v>
+        <v>47.26436414289514</v>
       </c>
       <c r="G33">
-        <v>26.64999961853028</v>
+        <v>39.35381346537068</v>
       </c>
       <c r="H33">
-        <v>178998669</v>
+        <v>457000000</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>22504072338</v>
@@ -4784,22 +4676,22 @@
         <v>45016</v>
       </c>
       <c r="D34">
-        <v>261.1884929516806</v>
+        <v>42.06404489647473</v>
       </c>
       <c r="E34">
-        <v>225.4617156982422</v>
+        <v>44.23632049560547</v>
       </c>
       <c r="F34">
-        <v>262.5264343168398</v>
+        <v>44.46497917211179</v>
       </c>
       <c r="G34">
-        <v>223.9783523558658</v>
+        <v>40.48247511852683</v>
       </c>
       <c r="H34">
-        <v>60498713</v>
+        <v>457000000</v>
       </c>
       <c r="I34" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>23821378112</v>
@@ -4900,22 +4792,22 @@
         <v>45107</v>
       </c>
       <c r="D35">
-        <v>18.42000007629395</v>
+        <v>42.79522748991629</v>
       </c>
       <c r="E35">
-        <v>19.04000091552734</v>
+        <v>42.6514892578125</v>
       </c>
       <c r="F35">
-        <v>19.38999938964844</v>
+        <v>47.41396873814946</v>
       </c>
       <c r="G35">
-        <v>17.57999992370605</v>
+        <v>41.49201352428094</v>
       </c>
       <c r="H35">
-        <v>260676335</v>
+        <v>457000000</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>23886944924</v>
@@ -5016,22 +4908,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>62.6169871617784</v>
+        <v>42.31292812566448</v>
       </c>
       <c r="E36">
-        <v>64.67326354980469</v>
+        <v>37.80314636230469</v>
       </c>
       <c r="F36">
-        <v>66.63478202323152</v>
+        <v>42.43820086241089</v>
       </c>
       <c r="G36">
-        <v>60.75970456328059</v>
+        <v>36.55043002269387</v>
       </c>
       <c r="H36">
-        <v>212968277</v>
+        <v>457000000</v>
       </c>
       <c r="I36" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>23462819325</v>
@@ -5132,22 +5024,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>1152.400024414062</v>
+        <v>41.94458948476228</v>
       </c>
       <c r="E37">
-        <v>1198.829956054688</v>
+        <v>39.82118225097656</v>
       </c>
       <c r="F37">
-        <v>1307.140014648438</v>
+        <v>42.856009227001</v>
       </c>
       <c r="G37">
-        <v>1113.18994140625</v>
+        <v>38.93885281242229</v>
       </c>
       <c r="H37">
-        <v>24003656</v>
+        <v>457000000</v>
       </c>
       <c r="I37" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>22638780000</v>
@@ -5260,22 +5152,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>104.6600036621094</v>
+        <v>51.32195006269598</v>
       </c>
       <c r="E38">
-        <v>92.98000335693359</v>
+        <v>50.23994827270508</v>
       </c>
       <c r="F38">
-        <v>105.0100021362305</v>
+        <v>51.58513627031154</v>
       </c>
       <c r="G38">
-        <v>90.66999816894533</v>
+        <v>48.16367466808671</v>
       </c>
       <c r="H38">
-        <v>168459019</v>
+        <v>457000000</v>
       </c>
       <c r="I38" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>27340040000</v>
@@ -5388,22 +5280,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>53.97000122070312</v>
+        <v>52.75868645567719</v>
       </c>
       <c r="E39">
-        <v>52.63999938964844</v>
+        <v>54.4830207824707</v>
       </c>
       <c r="F39">
-        <v>65.87999725341797</v>
+        <v>54.72795433841608</v>
       </c>
       <c r="G39">
-        <v>50.29000091552734</v>
+        <v>50.97557046738604</v>
       </c>
       <c r="H39">
-        <v>42689006</v>
+        <v>457000000</v>
       </c>
       <c r="I39" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>27182320000</v>
@@ -5516,22 +5408,22 @@
         <v>45565</v>
       </c>
       <c r="D40">
-        <v>36.50313191135645</v>
+        <v>64.12514845329184</v>
       </c>
       <c r="E40">
-        <v>39.63111877441406</v>
+        <v>56.60532760620117</v>
       </c>
       <c r="F40">
-        <v>41.15769383693995</v>
+        <v>66.73346368381313</v>
       </c>
       <c r="G40">
-        <v>34.26814654717644</v>
+        <v>55.44389324926963</v>
       </c>
       <c r="H40">
-        <v>171080665</v>
+        <v>457000000</v>
       </c>
       <c r="I40" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>31838790000</v>
@@ -5644,22 +5536,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>12.96000003814697</v>
+        <v>61.20290912737551</v>
       </c>
       <c r="E41">
-        <v>14.22000026702881</v>
+        <v>66.69852447509766</v>
       </c>
       <c r="F41">
-        <v>15.34500026702881</v>
+        <v>70.69173102028779</v>
       </c>
       <c r="G41">
-        <v>12.61999988555908</v>
+        <v>60.40229206603858</v>
       </c>
       <c r="H41">
-        <v>453568899</v>
+        <v>457000000</v>
       </c>
       <c r="I41" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>29674050000</v>
@@ -5772,22 +5664,22 @@
         <v>45747</v>
       </c>
       <c r="D42">
-        <v>187.8600006103516</v>
+        <v>67.12008738709555</v>
       </c>
       <c r="E42">
-        <v>184.4199981689453</v>
+        <v>67.67611694335938</v>
       </c>
       <c r="F42">
-        <v>198.3399963378907</v>
+        <v>68.48036410524296</v>
       </c>
       <c r="G42">
-        <v>161.3800048828125</v>
+        <v>58.29320056204837</v>
       </c>
       <c r="H42">
-        <v>10664912097</v>
+        <v>457000000</v>
       </c>
       <c r="I42" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>31562180000</v>
@@ -5900,22 +5792,22 @@
         <v>45838</v>
       </c>
       <c r="D43">
-        <v>105.0804770925983</v>
+        <v>74.55628091884633</v>
       </c>
       <c r="E43">
-        <v>103.1780242919922</v>
+        <v>91.46327972412109</v>
       </c>
       <c r="F43">
-        <v>109.3114367486601</v>
+        <v>92.50003061949134</v>
       </c>
       <c r="G43">
-        <v>101.4440230697358</v>
+        <v>74.42668990900725</v>
       </c>
       <c r="H43">
-        <v>199618386</v>
+        <v>457000000</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>34326060000</v>
